--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Report" sheetId="9" r:id="rId2"/>
     <sheet name="icta2016" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="219">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -693,6 +693,9 @@
   </si>
   <si>
     <t>D:\Thi.DN\PhD\GA\icta2016 reference\A Genetic Algorithm based Approach for Test Data Generationin Basis Path Testing.pdf</t>
+  </si>
+  <si>
+    <t>D:\Thi.DN\PhD\GA\icta2016 reference\Automatic Test Data Generation for Data Flow Testing Using a Genetic Algorithm</t>
   </si>
 </sst>
 </file>
@@ -6371,6 +6374,11 @@
         <v>217</v>
       </c>
     </row>
+    <row r="4" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P4" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
     <row r="12" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="221">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -696,6 +696,12 @@
   </si>
   <si>
     <t>D:\Thi.DN\PhD\GA\icta2016 reference\Automatic Test Data Generation for Data Flow Testing Using a Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>Suy nghĩ về tên paper</t>
+  </si>
+  <si>
+    <t>Viết phần abstract</t>
   </si>
 </sst>
 </file>
@@ -864,7 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -947,6 +953,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1022,8 +1029,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8169551" y="12801600"/>
-          <a:ext cx="6743286" cy="6343650"/>
+          <a:off x="8172450" y="12801600"/>
+          <a:ext cx="6715125" cy="6343650"/>
           <a:chOff x="8172450" y="12801600"/>
           <a:chExt cx="6715125" cy="6343650"/>
         </a:xfrm>
@@ -2377,1761 +2384,1370 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>162771</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228186</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>113886</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3793477" y="1047750"/>
-          <a:ext cx="4301238" cy="5543550"/>
+          <a:off x="8610600" y="2828925"/>
+          <a:ext cx="6743286" cy="6343650"/>
+          <a:chOff x="1409700" y="247650"/>
+          <a:chExt cx="6743286" cy="6343650"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>239860</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6896154" y="4930588"/>
-          <a:ext cx="275611" cy="241488"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>N</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>132480</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>465701</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5578539" y="5486400"/>
-          <a:ext cx="333221" cy="251012"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Y</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>199994</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>122227</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Flowchart: Document 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1410229" y="247650"/>
-          <a:ext cx="1737586" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3820371" y="1047750"/>
+            <a:ext cx="4332615" cy="5543550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6945460" y="4930588"/>
+            <a:ext cx="275611" cy="241488"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>N</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5618880" y="5486400"/>
+            <a:ext cx="333221" cy="251012"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Y</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Flowchart: Document 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1419194" y="247650"/>
+            <a:ext cx="1751033" cy="933450"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDocument">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> function</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Test</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1409700" y="1485900"/>
+            <a:ext cx="1789013" cy="438150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>CFG generation</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1428690" y="2238375"/>
+            <a:ext cx="1751033" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Target</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> paths list</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> generation</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1409700" y="3181350"/>
+            <a:ext cx="1789013" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Tìm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> các path khó phủ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> function</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>150713</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400735" y="1485900"/>
-          <a:ext cx="1775566" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1409700" y="4191001"/>
+            <a:ext cx="1789013" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Tìm các điều kiện khó sinh test data thỏa mãn</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>CFG generation</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>209490</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>131723</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1419725" y="2238375"/>
-          <a:ext cx="1737586" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="6" idx="2"/>
+            <a:endCxn id="7" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2292470" y="1119389"/>
+            <a:ext cx="9496" cy="366511"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="7" idx="2"/>
+            <a:endCxn id="8" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2301966" y="1924050"/>
+            <a:ext cx="0" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="8" idx="2"/>
+            <a:endCxn id="9" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2301966" y="2828925"/>
+            <a:ext cx="0" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="9" idx="2"/>
+            <a:endCxn id="10" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2301966" y="3790950"/>
+            <a:ext cx="0" cy="400051"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4612938" y="1600200"/>
+            <a:ext cx="2016894" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Initialization</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Target</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4612938" y="2305050"/>
+            <a:ext cx="2026390" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Evaluation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> paths list</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4622433" y="2971800"/>
+            <a:ext cx="2007398" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Selection</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> generation</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>150713</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400735" y="3181350"/>
-          <a:ext cx="1775566" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Rectangle 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4631928" y="3629025"/>
+            <a:ext cx="1997904" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Perturbation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Tìm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="15" idx="2"/>
+            <a:endCxn id="16" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5623627" y="2028825"/>
+            <a:ext cx="4747" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="16" idx="2"/>
+            <a:endCxn id="17" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5628374" y="2695575"/>
+            <a:ext cx="0" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="17" idx="2"/>
+            <a:endCxn id="18" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5628374" y="3362325"/>
+            <a:ext cx="4748" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Flowchart: Decision 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4190677" y="4991100"/>
+            <a:ext cx="2880408" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Stopping</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>criteria?</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> các path khó phủ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>150713</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400735" y="4191001"/>
-          <a:ext cx="1775566" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="18" idx="2"/>
+            <a:endCxn id="27" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5633122" y="4019550"/>
+            <a:ext cx="0" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="Elbow Connector 23"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="22" idx="3"/>
+            <a:endCxn id="16" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6639328" y="2500313"/>
+            <a:ext cx="431757" cy="2724150"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -53333"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="22" idx="2"/>
+            <a:endCxn id="26" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5633122" y="5457825"/>
+            <a:ext cx="4747" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Flowchart: Terminator 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4631928" y="5867400"/>
+            <a:ext cx="2007399" cy="542925"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartTerminator">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>End</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Rectangle 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4631928" y="4295775"/>
+            <a:ext cx="1997904" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Adjustment</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="27" idx="2"/>
+            <a:endCxn id="22" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5633122" y="4686300"/>
+            <a:ext cx="0" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="10" idx="3"/>
+            <a:endCxn id="27" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3198713" y="4486276"/>
+            <a:ext cx="1433215" cy="4762"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="TextBox 29"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6027164" y="1171575"/>
+            <a:ext cx="1684568" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Genetic algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Tìm các điều kiện khó sinh test data thỏa mãn</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>463670</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>166889</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>473166</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2279023" y="1119389"/>
-          <a:ext cx="9496" cy="366511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>473166</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>473166</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2288519" y="1924050"/>
-          <a:ext cx="0" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>473166</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>473166</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2288519" y="2828925"/>
-          <a:ext cx="0" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>473166</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>473166</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2288519" y="3790950"/>
-          <a:ext cx="0" cy="400051"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>345738</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533832</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4581562" y="1600200"/>
-          <a:ext cx="2003446" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Initialization</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>345738</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>543328</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4581562" y="2305050"/>
-          <a:ext cx="2012942" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Evaluation</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>355233</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533831</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4591057" y="2971800"/>
-          <a:ext cx="1993950" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Selection</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>364728</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533832</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4600552" y="3629025"/>
-          <a:ext cx="1984456" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Perturbation</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>137227</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>141974</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="2"/>
-          <a:endCxn id="16" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5583286" y="2028825"/>
-          <a:ext cx="4747" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>141974</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>141974</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="2"/>
-          <a:endCxn id="17" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5588033" y="2695575"/>
-          <a:ext cx="0" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>141974</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>146722</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="2"/>
-          <a:endCxn id="18" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5588033" y="3362325"/>
-          <a:ext cx="4748" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533077</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>365485</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Flowchart: Decision 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4163783" y="4991100"/>
-          <a:ext cx="2857996" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Stopping</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>criteria?</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>146722</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>146722</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="2"/>
-          <a:endCxn id="27" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5592781" y="4019550"/>
-          <a:ext cx="0" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>543328</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>365485</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Elbow Connector 23"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="3"/>
-          <a:endCxn id="16" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6594504" y="2500313"/>
-          <a:ext cx="427275" cy="2724150"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -53333"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>146722</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>151469</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="2"/>
-          <a:endCxn id="26" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5592781" y="5457825"/>
-          <a:ext cx="4747" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>364728</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>543327</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Flowchart: Terminator 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4600552" y="5867400"/>
-          <a:ext cx="1993951" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>End</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>364728</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533832</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4600552" y="4295775"/>
-          <a:ext cx="1984456" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Adjustment</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>146722</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>146722</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="2"/>
-          <a:endCxn id="22" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5592781" y="4686300"/>
-          <a:ext cx="0" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>150713</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>364728</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
-          <a:endCxn id="27" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3176301" y="4486276"/>
-          <a:ext cx="1424251" cy="4762"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>540764</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>396532</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextBox 29"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5986823" y="1171575"/>
-          <a:ext cx="1671121" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Genetic algorithm</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5451,8 +5067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="C61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6353,10 +5969,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="O2:P13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6364,27 +5980,35 @@
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="P3" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="224">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -702,6 +702,15 @@
   </si>
   <si>
     <t>Viết phần abstract</t>
+  </si>
+  <si>
+    <t>Viết phần related work</t>
+  </si>
+  <si>
+    <t>Proposed approach</t>
+  </si>
+  <si>
+    <t>Viết thêm phần biểu diễn</t>
   </si>
 </sst>
 </file>
@@ -5972,7 +5981,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6003,6 +6012,21 @@
         <v>218</v>
       </c>
     </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
+        <v>223</v>
+      </c>
+    </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="7200" tabRatio="940" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7140" tabRatio="940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
     <sheet name="Report" sheetId="9" r:id="rId2"/>
     <sheet name="icta2016" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="227">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -711,6 +711,15 @@
   </si>
   <si>
     <t>Viết thêm phần biểu diễn</t>
+  </si>
+  <si>
+    <t>Genetic algorithm for path testing</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>Thầy Hiếu nói ko được</t>
   </si>
 </sst>
 </file>
@@ -2393,1370 +2402,1761 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>113886</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>488675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="8610600" y="2828925"/>
-          <a:ext cx="6743286" cy="6343650"/>
-          <a:chOff x="1409700" y="247650"/>
-          <a:chExt cx="6743286" cy="6343650"/>
+          <a:off x="11222936" y="5562600"/>
+          <a:ext cx="3975652" cy="5295900"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectangle 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3820371" y="1047750"/>
-            <a:ext cx="4332615" cy="5543550"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6945460" y="4930588"/>
-            <a:ext cx="275611" cy="241488"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>N</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="TextBox 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5618880" y="5486400"/>
-            <a:ext cx="333221" cy="251012"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Y</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Flowchart: Document 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1419194" y="247650"/>
-            <a:ext cx="1751033" cy="933450"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartDocument">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Test</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> function</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>230335</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>15688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>505946</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14251135" y="9350188"/>
+          <a:ext cx="275611" cy="241488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>399026</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12915900" y="9867900"/>
+          <a:ext cx="284726" cy="251012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Y</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312230</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>234463</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>13287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flowchart: Document 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8893013" y="5366337"/>
+          <a:ext cx="1760972" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectangle 6"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1409700" y="1485900"/>
-            <a:ext cx="1789013" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>CFG generation</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1428690" y="2238375"/>
-            <a:ext cx="1751033" cy="590550"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Target</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> paths list</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> generation</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1409700" y="3181350"/>
-            <a:ext cx="1789013" cy="609600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Tìm</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> các path khó phủ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200">
+            </a:rPr>
+            <a:t>Test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1409700" y="4191001"/>
-            <a:ext cx="1789013" cy="590550"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Tìm các điều kiện khó sinh test data thỏa mãn</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200">
+            </a:rPr>
+            <a:t> function</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>302736</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>111007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>262949</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8883519" y="6588007"/>
+          <a:ext cx="1798952" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="6" idx="2"/>
-            <a:endCxn id="7" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2292470" y="1119389"/>
-            <a:ext cx="9496" cy="366511"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="7" idx="2"/>
-            <a:endCxn id="8" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2301966" y="1924050"/>
-            <a:ext cx="0" cy="314325"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="8" idx="2"/>
-            <a:endCxn id="9" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2301966" y="2828925"/>
-            <a:ext cx="0" cy="352425"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="9" idx="2"/>
-            <a:endCxn id="10" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2301966" y="3790950"/>
-            <a:ext cx="0" cy="400051"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4612938" y="1600200"/>
-            <a:ext cx="2016894" cy="428625"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Initialization</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200">
+            </a:rPr>
+            <a:t>CFG generation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>321726</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>243959</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>184239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8902509" y="7272142"/>
+          <a:ext cx="1760972" cy="532097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectangle 15"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4612938" y="2305050"/>
-            <a:ext cx="2026390" cy="390525"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Evaluation</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200">
+            </a:rPr>
+            <a:t>Target</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Rectangle 16"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4622433" y="2971800"/>
-            <a:ext cx="2007398" cy="390525"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Selection</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200">
+            </a:rPr>
+            <a:t> paths list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Rectangle 17"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4631928" y="3629025"/>
-            <a:ext cx="1997904" cy="390525"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Perturbation</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200">
+            </a:rPr>
+            <a:t> generation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>302736</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>262949</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>17585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8883519" y="8042413"/>
+          <a:ext cx="1798952" cy="357172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="15" idx="2"/>
-            <a:endCxn id="16" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5623627" y="2028825"/>
-            <a:ext cx="4747" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="16" idx="2"/>
-            <a:endCxn id="17" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5628374" y="2695575"/>
-            <a:ext cx="0" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="17" idx="2"/>
-            <a:endCxn id="18" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5628374" y="3362325"/>
-            <a:ext cx="4748" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="Flowchart: Decision 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4190677" y="4991100"/>
-            <a:ext cx="2880408" cy="466725"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartDecision">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Stopping</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>criteria?</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200">
+            </a:rPr>
+            <a:t>Tìm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="18" idx="2"/>
-            <a:endCxn id="27" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5633122" y="4019550"/>
-            <a:ext cx="0" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="24" name="Elbow Connector 23"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="22" idx="3"/>
-            <a:endCxn id="16" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="6639328" y="2500313"/>
-            <a:ext cx="431757" cy="2724150"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector3">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -53333"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="22" idx="2"/>
-            <a:endCxn id="26" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5633122" y="5457825"/>
-            <a:ext cx="4747" cy="409575"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="Flowchart: Terminator 25"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4631928" y="5867400"/>
-            <a:ext cx="2007399" cy="542925"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartTerminator">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>End</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="Rectangle 26"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4631928" y="4295775"/>
-            <a:ext cx="1997904" cy="390525"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Adjustment</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="27" idx="2"/>
-            <a:endCxn id="22" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5633122" y="4686300"/>
-            <a:ext cx="0" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="10" idx="3"/>
-            <a:endCxn id="27" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3198713" y="4486276"/>
-            <a:ext cx="1433215" cy="4762"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="25400">
-            <a:prstDash val="sysDot"/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="TextBox 29"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6027164" y="1171575"/>
-            <a:ext cx="1684568" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Genetic algorithm</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="1">
+            </a:rPr>
+            <a:t> các path khó phủ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>302736</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>64478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>262949</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>83528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8883519" y="8636978"/>
+          <a:ext cx="1798952" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            </a:rPr>
+            <a:t>Tìm các điều kiện khó sinh test data thỏa mãn</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>579803</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589299</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>111007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9773499" y="6238076"/>
+          <a:ext cx="9496" cy="349931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589299</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589299</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33142</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782995" y="7026157"/>
+          <a:ext cx="0" cy="245985"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589299</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>184239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589299</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782995" y="7804239"/>
+          <a:ext cx="0" cy="238174"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589299</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>17585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589299</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>64478</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782995" y="8399585"/>
+          <a:ext cx="0" cy="237393"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>317163</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>505257</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11899563" y="6076950"/>
+          <a:ext cx="2016894" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Initialization</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>317163</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514753</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11899563" y="6781800"/>
+          <a:ext cx="2026390" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Evaluation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>326658</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>505256</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11909058" y="7439025"/>
+          <a:ext cx="2007398" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Selection</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336153</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>505257</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11918553" y="8096250"/>
+          <a:ext cx="1997904" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Recombination</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106410</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>111158</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12908010" y="6505575"/>
+          <a:ext cx="4748" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>111157</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>111158</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12912757" y="7172325"/>
+          <a:ext cx="1" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>111157</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>115905</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12912757" y="7829550"/>
+          <a:ext cx="4748" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504502</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>336910</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Flowchart: Decision 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11477302" y="9372600"/>
+          <a:ext cx="2880408" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Stopping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>criteria?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>115905</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>115905</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12917505" y="8486775"/>
+          <a:ext cx="0" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514753</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>336910</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Elbow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13925953" y="6977063"/>
+          <a:ext cx="431757" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52946"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>115906</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>120653</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12917506" y="9839325"/>
+          <a:ext cx="4747" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336153</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514752</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Flowchart: Terminator 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11918553" y="10153650"/>
+          <a:ext cx="2007399" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>End</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336153</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>505257</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11918553" y="8734425"/>
+          <a:ext cx="1997904" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Adjustment</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>115905</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>115906</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12917505" y="9124950"/>
+          <a:ext cx="1" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>262949</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336153</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>169253</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10682471" y="8929688"/>
+          <a:ext cx="1299030" cy="2565"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>486509</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342277</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13357683" y="5657850"/>
+          <a:ext cx="1694507" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Genetic algorithm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5978,10 +6378,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5989,17 +6389,17 @@
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6007,34 +6407,47 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="42" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="229">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -720,6 +720,12 @@
   </si>
   <si>
     <t>Thầy Hiếu nói ko được</t>
+  </si>
+  <si>
+    <t>Hiện tại phần related work này mình đang dựa vào PhD thesis của Irman Hermadi nhiều quá.</t>
+  </si>
+  <si>
+    <t>Mình cần phải dựa vào những paper khác nữa.</t>
   </si>
 </sst>
 </file>
@@ -956,6 +962,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,7 +978,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6007,24 +6013,24 @@
       <c r="C23" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43" t="s">
+      <c r="J23" s="44"/>
+      <c r="K23" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="43"/>
+      <c r="L23" s="44"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="45"/>
-      <c r="H24" s="47"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="14" t="s">
         <v>193</v>
       </c>
@@ -6378,10 +6384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6390,7 +6396,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6448,6 +6454,16 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16" s="42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P17" s="42" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7140" tabRatio="940" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7140" tabRatio="940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
     <sheet name="Report" sheetId="9" r:id="rId2"/>
     <sheet name="icta2016" sheetId="11" r:id="rId3"/>
+    <sheet name="201607" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="124519" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="232">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -727,15 +728,24 @@
   <si>
     <t>Mình cần phải dựa vào những paper khác nữa.</t>
   </si>
+  <si>
+    <t>http://www.iitk.ac.in/kangal/codes.shtml</t>
+  </si>
+  <si>
+    <t>1, Implement toàn bộ source ở đây</t>
+  </si>
+  <si>
+    <t>2, Implement theo cái Korel, nhưng apply KO phải cho tập target paths mà cho từng path một</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4243,7 +4253,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4278,7 +4287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4454,36 +4462,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP158"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -4491,17 +4499,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -4509,7 +4517,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -4517,32 +4525,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -4550,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -4558,7 +4566,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -4566,7 +4574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4574,12 +4582,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -4590,7 +4598,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -4604,7 +4612,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -4612,7 +4620,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -4623,7 +4631,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -4634,12 +4642,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -4647,12 +4655,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -4660,7 +4668,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -4668,7 +4676,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -4676,47 +4684,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -4724,7 +4732,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4732,44 +4740,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -4780,7 +4788,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -4791,7 +4799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -4808,7 +4816,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -4819,21 +4827,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -4841,57 +4849,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -4904,12 +4912,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -4917,7 +4925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -4925,12 +4933,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -4938,12 +4946,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -4977,7 +4985,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5009,7 +5017,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5023,29 +5031,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5053,12 +5061,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5066,7 +5074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5084,7 +5092,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5092,12 +5100,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5105,12 +5113,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5132,7 +5140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5146,7 +5154,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5160,14 +5168,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5180,7 +5188,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5203,7 +5211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5223,7 +5231,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5243,7 +5251,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5263,12 +5271,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5288,7 +5296,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5308,12 +5316,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5333,83 +5341,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5419,32 +5427,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -5459,12 +5467,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -5479,14 +5487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5501,7 +5509,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -5510,7 +5518,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -5548,7 +5556,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -5592,7 +5600,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -5626,7 +5634,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -5660,7 +5668,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5697,7 +5705,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5738,7 +5746,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5780,7 +5788,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5820,7 +5828,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5860,7 +5868,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5876,7 +5884,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5892,7 +5900,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5908,7 +5916,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5924,7 +5932,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5940,7 +5948,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5956,7 +5964,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5972,7 +5980,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5988,7 +5996,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6004,12 +6012,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6028,7 +6036,7 @@
       </c>
       <c r="L23" s="44"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="46"/>
       <c r="H24" s="48"/>
       <c r="I24" s="14" t="s">
@@ -6044,7 +6052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6060,7 +6068,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6072,7 +6080,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6084,7 +6092,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6096,7 +6104,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6104,7 +6112,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6112,7 +6120,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6120,7 +6128,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6130,7 +6138,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6138,7 +6146,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6146,7 +6154,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6154,7 +6162,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6174,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6190,7 +6198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6202,7 +6210,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6214,7 +6222,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6224,7 +6232,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6232,14 +6240,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6249,7 +6257,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6259,7 +6267,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6270,7 +6278,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6278,7 +6286,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6289,17 +6297,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6307,7 +6315,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6324,7 +6332,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6332,41 +6340,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6383,29 +6391,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6413,17 +6421,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6431,37 +6439,37 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
@@ -6471,4 +6479,37 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7140" tabRatio="940" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7080" tabRatio="940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
     <sheet name="Report" sheetId="9" r:id="rId2"/>
     <sheet name="icta2016" sheetId="11" r:id="rId3"/>
     <sheet name="201607" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="239">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -737,15 +738,36 @@
   <si>
     <t>2, Implement theo cái Korel, nhưng apply KO phải cho tập target paths mà cho từng path một</t>
   </si>
+  <si>
+    <t>ttB2002</t>
+  </si>
+  <si>
+    <t>tM2004</t>
+  </si>
+  <si>
+    <t>tA2008</t>
+  </si>
+  <si>
+    <t>QuadEq2</t>
+  </si>
+  <si>
+    <t>Input variables</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,7 +926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -987,6 +1009,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4253,6 +4281,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4287,6 +4316,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4462,36 +4492,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP158"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -4499,17 +4529,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -4517,7 +4547,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -4525,32 +4555,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -4558,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -4566,7 +4596,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -4574,7 +4604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4582,12 +4612,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -4598,7 +4628,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -4612,7 +4642,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -4620,7 +4650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -4631,7 +4661,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -4642,12 +4672,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -4655,12 +4685,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -4668,7 +4698,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -4676,7 +4706,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -4684,47 +4714,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -4732,7 +4762,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4740,44 +4770,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -4788,7 +4818,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -4799,7 +4829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -4816,7 +4846,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -4827,21 +4857,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -4849,57 +4879,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -4912,12 +4942,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -4925,7 +4955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -4933,12 +4963,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -4946,12 +4976,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -4985,7 +5015,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5017,7 +5047,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5031,29 +5061,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5061,12 +5091,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5074,7 +5104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5092,7 +5122,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5100,12 +5130,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5113,12 +5143,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5140,7 +5170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5154,7 +5184,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5168,14 +5198,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5188,7 +5218,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5211,7 +5241,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5231,7 +5261,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5251,7 +5281,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5271,12 +5301,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5296,7 +5326,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5316,12 +5346,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5341,83 +5371,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5427,32 +5457,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -5467,12 +5497,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -5487,14 +5517,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5509,7 +5539,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -5518,7 +5548,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -5556,7 +5586,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -5600,7 +5630,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -5634,7 +5664,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -5668,7 +5698,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5705,7 +5735,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5746,7 +5776,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5788,7 +5818,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5828,7 +5858,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5868,7 +5898,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5884,7 +5914,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5900,7 +5930,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5916,7 +5946,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5932,7 +5962,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5948,7 +5978,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5964,7 +5994,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5980,7 +6010,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5996,7 +6026,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6012,12 +6042,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6036,7 +6066,7 @@
       </c>
       <c r="L23" s="44"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="46"/>
       <c r="H24" s="48"/>
       <c r="I24" s="14" t="s">
@@ -6052,7 +6082,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6068,7 +6098,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6080,7 +6110,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6092,7 +6122,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6104,7 +6134,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6112,7 +6142,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6120,7 +6150,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6128,7 +6158,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6138,7 +6168,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6146,7 +6176,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6154,7 +6184,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6162,7 +6192,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6182,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6198,7 +6228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6210,7 +6240,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6222,7 +6252,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6232,7 +6262,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6240,14 +6270,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6257,7 +6287,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6267,7 +6297,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6278,7 +6308,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6286,7 +6316,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6297,17 +6327,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6315,7 +6345,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6332,7 +6362,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6340,41 +6370,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6391,29 +6421,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6421,17 +6451,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6439,40 +6469,43 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="16:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6482,26 +6515,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -6512,4 +6545,57 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D8:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="246">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -751,13 +751,34 @@
     <t>QuadEq2</t>
   </si>
   <si>
-    <t>Input variables</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>Range</t>
+  </si>
+  <si>
+    <t>Max gen</t>
+  </si>
+  <si>
+    <t>Popsize</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>[1, 1000]</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>Max run</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
+  </si>
+  <si>
+    <t>[1, 400]</t>
   </si>
 </sst>
 </file>
@@ -6549,53 +6570,113 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:F13"/>
+  <dimension ref="D9:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>237</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" s="50" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10">
+        <v>250</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>235</v>
       </c>
+      <c r="E13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f>150*250</f>
+        <v>37500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7080" tabRatio="940" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7020" tabRatio="940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="249">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -779,6 +779,15 @@
   </si>
   <si>
     <t>[1, 400]</t>
+  </si>
+  <si>
+    <t>[0, 50]</t>
+  </si>
+  <si>
+    <t>[-50, 50]</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -1016,6 +1025,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,12 +1045,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6072,24 +6081,24 @@
       <c r="C23" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44" t="s">
+      <c r="J23" s="46"/>
+      <c r="K23" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="44"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="46"/>
-      <c r="H24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="14" t="s">
         <v>193</v>
       </c>
@@ -6526,7 +6535,7 @@
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="49"/>
+      <c r="D18" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6572,19 +6581,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D9:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>197</v>
       </c>
@@ -6606,9 +6617,12 @@
       <c r="J9" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="50" t="s">
+      <c r="K9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="45" t="s">
         <v>232</v>
       </c>
       <c r="E10" t="s">
@@ -6630,15 +6644,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>233</v>
       </c>
       <c r="E11" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>234</v>
       </c>
@@ -6661,15 +6690,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>235</v>
       </c>
       <c r="E13" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13">
+        <v>150</v>
+      </c>
+      <c r="H13">
+        <v>250</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f>150810/J18</f>
+        <v>4.0216000000000003</v>
+      </c>
+      <c r="J18">
+        <f>G13*H13</f>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
       <c r="L30">
         <f>150*250</f>
         <v>37500</v>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7020" tabRatio="940" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7020" tabRatio="940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="250">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -787,7 +787,10 @@
     <t>[-50, 50]</t>
   </si>
   <si>
-    <t>Max</t>
+    <t>Max aval. function call</t>
+  </si>
+  <si>
+    <t>Test function</t>
   </si>
 </sst>
 </file>
@@ -1028,9 +1031,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1045,6 +1045,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2659,14 +2662,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>312230</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>32337</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>234463</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>13287</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>89487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2675,8 +2678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8893013" y="5366337"/>
-          <a:ext cx="1760972" cy="933450"/>
+          <a:off x="8846630" y="5252037"/>
+          <a:ext cx="1751033" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2742,14 +2745,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>302736</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>111007</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>262949</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>168157</xdr:rowOff>
+      <xdr:rowOff>15757</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2758,8 +2761,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8883519" y="6588007"/>
-          <a:ext cx="1798952" cy="438150"/>
+          <a:off x="8837136" y="6435607"/>
+          <a:ext cx="1789013" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2806,14 +2809,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>321726</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>33142</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>61717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>243959</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>184239</xdr:rowOff>
+      <xdr:rowOff>22314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2822,8 +2825,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8902509" y="7272142"/>
-          <a:ext cx="1760972" cy="532097"/>
+          <a:off x="8856126" y="7110217"/>
+          <a:ext cx="1751033" cy="532097"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2889,15 +2892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>302736</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>262949</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>17585</xdr:rowOff>
+      <xdr:rowOff>8060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2906,8 +2909,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8883519" y="8042413"/>
-          <a:ext cx="1798952" cy="357172"/>
+          <a:off x="8829675" y="7886700"/>
+          <a:ext cx="1800225" cy="503360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2943,7 +2946,27 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Tìm</a:t>
+            <a:t>Determine</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>difficult</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0">
@@ -2953,15 +2976,31 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> các path khó phủ</a:t>
+            <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>paths</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>to be covered</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3024,7 +3063,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Tìm các điều kiện khó sinh test data thỏa mãn</a:t>
+            <a:t>Determine path conditions</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
@@ -3041,15 +3080,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>579803</xdr:colOff>
+      <xdr:colOff>578147</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>142076</xdr:rowOff>
+      <xdr:rowOff>27776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>589299</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>111007</xdr:rowOff>
+      <xdr:colOff>587643</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149107</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3061,8 +3100,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9773499" y="6238076"/>
-          <a:ext cx="9496" cy="349931"/>
+          <a:off x="9722147" y="6123776"/>
+          <a:ext cx="9496" cy="311831"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3091,15 +3130,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>589299</xdr:colOff>
+      <xdr:colOff>587643</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>168157</xdr:rowOff>
+      <xdr:rowOff>15757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>589299</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>33142</xdr:rowOff>
+      <xdr:colOff>587643</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>61717</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3111,8 +3150,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9782995" y="7026157"/>
-          <a:ext cx="0" cy="245985"/>
+          <a:off x="9731643" y="6873757"/>
+          <a:ext cx="0" cy="236460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3141,15 +3180,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>589299</xdr:colOff>
+      <xdr:colOff>585788</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>184239</xdr:rowOff>
+      <xdr:rowOff>22314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>589299</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:colOff>587643</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3160,9 +3199,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9782995" y="7804239"/>
-          <a:ext cx="0" cy="238174"/>
+        <a:xfrm flipH="1">
+          <a:off x="9729788" y="7642314"/>
+          <a:ext cx="1855" cy="244386"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3191,13 +3230,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>589299</xdr:colOff>
+      <xdr:colOff>585788</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>17585</xdr:rowOff>
+      <xdr:rowOff>8060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>589299</xdr:colOff>
+      <xdr:colOff>587643</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>64478</xdr:rowOff>
     </xdr:to>
@@ -3211,8 +3250,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9782995" y="8399585"/>
-          <a:ext cx="0" cy="237393"/>
+          <a:off x="9729788" y="8390060"/>
+          <a:ext cx="1855" cy="246918"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6081,24 +6120,24 @@
       <c r="C23" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I23" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46" t="s">
+      <c r="J23" s="45"/>
+      <c r="K23" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="46"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="48"/>
-      <c r="H24" s="50"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="49"/>
       <c r="I24" s="14" t="s">
         <v>193</v>
       </c>
@@ -6454,8 +6493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6581,136 +6620,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D9:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="15" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="15">
         <v>150</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="15">
         <v>250</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="15">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="15">
         <v>10</v>
       </c>
+      <c r="K10" s="32">
+        <f>G10*H10*I10</f>
+        <v>37500</v>
+      </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="D11" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="15">
         <v>100</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="15">
         <v>250</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="15">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="15">
         <v>1</v>
       </c>
+      <c r="K11" s="32">
+        <f t="shared" ref="K11:K13" si="0">G11*H11*I11</f>
+        <v>25000</v>
+      </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="D12" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="15">
         <v>100</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="15">
         <v>100</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="15">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="15">
         <v>10</v>
       </c>
+      <c r="K12" s="32">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+      <c r="D13" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="15">
         <v>150</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="15">
         <v>250</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="15">
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="15">
         <v>1</v>
+      </c>
+      <c r="K13" s="32">
+        <f t="shared" si="0"/>
+        <v>187500</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.25">

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -2808,15 +2808,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>321726</xdr:colOff>
+      <xdr:colOff>293151</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>61717</xdr:rowOff>
+      <xdr:rowOff>90293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>243959</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>22314</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2825,8 +2825,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8856126" y="7110217"/>
-          <a:ext cx="1751033" cy="532097"/>
+          <a:off x="8827551" y="7138793"/>
+          <a:ext cx="1792824" cy="500258"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2894,13 +2894,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>101049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>8060</xdr:rowOff>
+      <xdr:rowOff>32909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2909,8 +2909,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8829675" y="7886700"/>
-          <a:ext cx="1800225" cy="503360"/>
+          <a:off x="8876058" y="7911549"/>
+          <a:ext cx="1810164" cy="503360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3011,13 +3011,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>302736</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>64478</xdr:rowOff>
+      <xdr:rowOff>111918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>262949</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>83528</xdr:rowOff>
+      <xdr:rowOff>14471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3026,8 +3026,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8883519" y="8636978"/>
-          <a:ext cx="1798952" cy="590550"/>
+          <a:off x="8803799" y="8684418"/>
+          <a:ext cx="1781869" cy="474053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3130,7 +3130,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>587643</xdr:colOff>
+      <xdr:colOff>579963</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>15757</xdr:rowOff>
     </xdr:from>
@@ -3138,7 +3138,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>587643</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>61717</xdr:rowOff>
+      <xdr:rowOff>90293</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3149,9 +3149,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9731643" y="6873757"/>
-          <a:ext cx="0" cy="236460"/>
+        <a:xfrm flipH="1">
+          <a:off x="9723963" y="6873757"/>
+          <a:ext cx="7680" cy="265036"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3180,15 +3180,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
+      <xdr:colOff>581620</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>22314</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>587643</xdr:colOff>
+      <xdr:colOff>587444</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>101049</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3199,9 +3199,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9729788" y="7642314"/>
-          <a:ext cx="1855" cy="244386"/>
+        <a:xfrm>
+          <a:off x="9775316" y="7639051"/>
+          <a:ext cx="5824" cy="272498"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3230,15 +3230,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
+      <xdr:colOff>587444</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>8060</xdr:rowOff>
+      <xdr:rowOff>32909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>587643</xdr:colOff>
+      <xdr:colOff>589299</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>64478</xdr:rowOff>
+      <xdr:rowOff>111918</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3250,8 +3250,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9729788" y="8390060"/>
-          <a:ext cx="1855" cy="246918"/>
+          <a:off x="9781140" y="8414909"/>
+          <a:ext cx="1855" cy="269509"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4153,13 +4153,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>262949</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:rowOff>158445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>336153</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>169253</xdr:rowOff>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4170,9 +4170,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10682471" y="8929688"/>
-          <a:ext cx="1299030" cy="2565"/>
+        <a:xfrm>
+          <a:off x="10585668" y="8921445"/>
+          <a:ext cx="1287641" cy="8243"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6493,8 +6493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="N11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7020" tabRatio="940" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7020" tabRatio="940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="201607" sheetId="12" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="251">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -792,15 +792,18 @@
   <si>
     <t>Test function</t>
   </si>
+  <si>
+    <t>Đã download, PC ở nhà để ở folder này nhé:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +1035,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1045,9 +1051,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1087,7 +1090,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4350,7 +4353,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4385,7 +4387,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4561,36 +4562,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP158"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -4598,17 +4599,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -4624,32 +4625,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4681,12 +4682,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -4741,12 +4742,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -4754,12 +4755,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -4783,47 +4784,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4839,44 +4840,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -4926,21 +4927,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -4948,57 +4949,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5011,12 +5012,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5032,12 +5033,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5045,12 +5046,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5116,7 +5117,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5130,29 +5131,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5160,12 +5161,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5191,7 +5192,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5199,12 +5200,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5212,12 +5213,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5267,14 +5268,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5310,7 +5311,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5330,7 +5331,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5350,7 +5351,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5370,12 +5371,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5395,7 +5396,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5415,12 +5416,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5440,83 +5441,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5526,32 +5527,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -5566,12 +5567,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -5586,14 +5587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5608,7 +5609,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -5617,7 +5618,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -5699,7 +5700,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -5733,7 +5734,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -5767,7 +5768,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5804,7 +5805,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5845,7 +5846,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5887,7 +5888,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5927,7 +5928,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5967,7 +5968,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5983,7 +5984,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5999,7 +6000,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6015,7 +6016,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6031,7 +6032,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6047,7 +6048,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6063,7 +6064,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6079,7 +6080,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6095,7 +6096,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6111,33 +6112,33 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45" t="s">
+      <c r="J23" s="46"/>
+      <c r="K23" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="45"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="47"/>
-      <c r="H24" s="49"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="G24" s="48"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="14" t="s">
         <v>193</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6167,7 +6168,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6179,7 +6180,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6191,7 +6192,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6203,7 +6204,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6211,7 +6212,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6219,7 +6220,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6227,7 +6228,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6237,7 +6238,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6245,7 +6246,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6253,7 +6254,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6261,7 +6262,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6297,7 +6298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6309,7 +6310,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6321,7 +6322,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6331,7 +6332,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6339,14 +6340,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6356,7 +6357,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6366,7 +6367,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6377,7 +6378,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6385,7 +6386,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6396,17 +6397,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6431,7 +6432,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6439,41 +6440,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6490,29 +6491,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="N77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6520,17 +6521,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6538,42 +6539,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -6584,27 +6585,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6617,14 +6623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D9:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
@@ -6635,7 +6641,7 @@
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11">
       <c r="D9" s="15" t="s">
         <v>249</v>
       </c>
@@ -6661,8 +6667,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="50" t="s">
+    <row r="10" spans="4:11">
+      <c r="D10" s="45" t="s">
         <v>232</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -6688,7 +6694,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11">
       <c r="D11" s="15" t="s">
         <v>233</v>
       </c>
@@ -6715,7 +6721,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:11">
       <c r="D12" s="15" t="s">
         <v>234</v>
       </c>
@@ -6742,7 +6748,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11">
       <c r="D13" s="15" t="s">
         <v>235</v>
       </c>
@@ -6769,7 +6775,7 @@
         <v>187500</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:12">
       <c r="I18">
         <f>150810/J18</f>
         <v>4.0216000000000003</v>
@@ -6779,7 +6785,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:12">
       <c r="L30">
         <f>150*250</f>
         <v>37500</v>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7020" tabRatio="940" activeTab="3"/>
@@ -10,15 +10,15 @@
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
     <sheet name="Report" sheetId="9" r:id="rId2"/>
     <sheet name="icta2016" sheetId="11" r:id="rId3"/>
-    <sheet name="201607" sheetId="12" r:id="rId4"/>
+    <sheet name="201612paper" sheetId="12" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="256">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -793,17 +793,32 @@
     <t>Test function</t>
   </si>
   <si>
-    <t>Đã download, PC ở nhà để ở folder này nhé:</t>
+    <t>Đây là paper mà mình dùng để viết phần Proposed của mình</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Test_functions_for_optimization</t>
+  </si>
+  <si>
+    <t>3, Đây là danh sách các function optimize</t>
+  </si>
+  <si>
+    <t>mình cần kiểm chứng cái program GA java của mình</t>
+  </si>
+  <si>
+    <t>- Có được giá trị optimize như đáp án ko?</t>
+  </si>
+  <si>
+    <t>- Kết quả có giống như với GA viết bằng C hay ko?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4353,6 +4368,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4387,6 +4403,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4562,36 +4579,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP158"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -4599,17 +4616,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -4617,7 +4634,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -4625,32 +4642,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -4658,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -4666,7 +4683,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -4674,7 +4691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4682,12 +4699,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -4698,7 +4715,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -4712,7 +4729,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -4720,7 +4737,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -4731,7 +4748,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -4742,12 +4759,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -4755,12 +4772,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -4768,7 +4785,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -4776,7 +4793,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -4784,47 +4801,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -4832,7 +4849,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4840,44 +4857,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -4888,7 +4905,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -4899,7 +4916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -4916,7 +4933,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -4927,21 +4944,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -4949,57 +4966,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5012,12 +5029,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5025,7 +5042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5033,12 +5050,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5046,12 +5063,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5085,7 +5102,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5117,7 +5134,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5131,29 +5148,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5161,12 +5178,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5174,7 +5191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5192,7 +5209,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5200,12 +5217,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5213,12 +5230,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5240,7 +5257,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5254,7 +5271,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5268,14 +5285,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5288,7 +5305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5311,7 +5328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5331,7 +5348,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5351,7 +5368,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5371,12 +5388,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5396,7 +5413,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5416,12 +5433,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5441,83 +5458,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5527,32 +5544,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -5567,12 +5584,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -5587,14 +5604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5609,7 +5626,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -5618,7 +5635,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -5656,7 +5673,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -5700,7 +5717,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -5734,7 +5751,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -5768,7 +5785,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5805,7 +5822,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5846,7 +5863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5888,7 +5905,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5928,7 +5945,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5968,7 +5985,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5984,7 +6001,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6000,7 +6017,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6016,7 +6033,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6032,7 +6049,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6048,7 +6065,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6064,7 +6081,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6080,7 +6097,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6096,7 +6113,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6112,12 +6129,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6136,7 +6153,7 @@
       </c>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="48"/>
       <c r="H24" s="50"/>
       <c r="I24" s="14" t="s">
@@ -6152,7 +6169,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6168,7 +6185,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6180,7 +6197,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6192,7 +6209,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6204,7 +6221,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6212,7 +6229,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6220,7 +6237,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6228,7 +6245,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6238,7 +6255,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6246,7 +6263,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6254,7 +6271,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6262,7 +6279,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6282,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6298,7 +6315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6310,7 +6327,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6322,7 +6339,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6332,7 +6349,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6340,14 +6357,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6357,7 +6374,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6367,7 +6384,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6378,7 +6395,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6386,7 +6403,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6397,17 +6414,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6415,7 +6432,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6432,7 +6449,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6440,41 +6457,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6491,29 +6508,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="N77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27"/>
+    <sheetView topLeftCell="N28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6521,17 +6538,26 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="AB4" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6539,42 +6565,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -6585,52 +6611,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D9:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
@@ -6641,7 +6688,7 @@
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:11">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" s="15" t="s">
         <v>249</v>
       </c>
@@ -6667,7 +6714,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="4:11">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" s="45" t="s">
         <v>232</v>
       </c>
@@ -6694,7 +6741,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="11" spans="4:11">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" s="15" t="s">
         <v>233</v>
       </c>
@@ -6721,7 +6768,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="4:11">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" s="15" t="s">
         <v>234</v>
       </c>
@@ -6748,7 +6795,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="4:11">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" s="15" t="s">
         <v>235</v>
       </c>
@@ -6775,7 +6822,7 @@
         <v>187500</v>
       </c>
     </row>
-    <row r="18" spans="9:12">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I18">
         <f>150810/J18</f>
         <v>4.0216000000000003</v>
@@ -6785,7 +6832,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="30" spans="9:12">
+    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
       <c r="L30">
         <f>150*250</f>
         <v>37500</v>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -6614,8 +6614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -6511,8 +6511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="N28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6614,8 +6614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6630,8 +6630,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>231</v>
       </c>
     </row>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7020" tabRatio="940" activeTab="3"/>
@@ -13,7 +13,7 @@
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -814,11 +814,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4368,7 +4368,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4403,7 +4402,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4579,36 +4577,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP158"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -4616,17 +4614,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -4634,7 +4632,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -4642,32 +4640,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -4675,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -4683,7 +4681,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -4691,7 +4689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4699,12 +4697,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -4715,7 +4713,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -4729,7 +4727,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -4737,7 +4735,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -4748,7 +4746,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -4759,12 +4757,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -4772,12 +4770,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -4785,7 +4783,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -4793,7 +4791,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -4801,47 +4799,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -4849,7 +4847,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4857,44 +4855,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -4905,7 +4903,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -4916,7 +4914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -4933,7 +4931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -4944,21 +4942,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -4966,57 +4964,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5029,12 +5027,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5042,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5050,12 +5048,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5063,12 +5061,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5102,7 +5100,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5134,7 +5132,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5148,29 +5146,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5178,12 +5176,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5191,7 +5189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5209,7 +5207,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5217,12 +5215,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5230,12 +5228,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5257,7 +5255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5271,7 +5269,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5285,14 +5283,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5305,7 +5303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5328,7 +5326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5348,7 +5346,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5368,7 +5366,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5388,12 +5386,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5413,7 +5411,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5433,12 +5431,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5458,83 +5456,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5544,32 +5542,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -5584,12 +5582,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -5604,14 +5602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5626,7 +5624,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -5635,7 +5633,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -5673,7 +5671,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -5717,7 +5715,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -5751,7 +5749,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -5785,7 +5783,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5822,7 +5820,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5863,7 +5861,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5905,7 +5903,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5945,7 +5943,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5985,7 +5983,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6001,7 +5999,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6017,7 +6015,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6033,7 +6031,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6049,7 +6047,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6065,7 +6063,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6081,7 +6079,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6097,7 +6095,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6113,7 +6111,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6129,12 +6127,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6153,7 +6151,7 @@
       </c>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="48"/>
       <c r="H24" s="50"/>
       <c r="I24" s="14" t="s">
@@ -6169,7 +6167,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6185,7 +6183,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6197,7 +6195,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6209,7 +6207,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6221,7 +6219,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6229,7 +6227,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6237,7 +6235,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6245,7 +6243,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6255,7 +6253,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6263,7 +6261,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6271,7 +6269,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6279,7 +6277,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6299,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6315,7 +6313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6327,7 +6325,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6339,7 +6337,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6349,7 +6347,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6357,14 +6355,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6374,7 +6372,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6384,7 +6382,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6395,7 +6393,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6403,7 +6401,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6414,17 +6412,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6432,7 +6430,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6449,7 +6447,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6457,41 +6455,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6508,29 +6506,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6538,7 +6536,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -6552,12 +6550,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6565,42 +6563,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -6611,51 +6609,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" s="25" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="C10" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="C11" s="3" t="s">
         <v>255</v>
       </c>
@@ -6670,14 +6668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D9:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
@@ -6688,7 +6686,7 @@
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11">
       <c r="D9" s="15" t="s">
         <v>249</v>
       </c>
@@ -6714,7 +6712,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:11">
       <c r="D10" s="45" t="s">
         <v>232</v>
       </c>
@@ -6741,7 +6739,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11">
       <c r="D11" s="15" t="s">
         <v>233</v>
       </c>
@@ -6768,7 +6766,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:11">
       <c r="D12" s="15" t="s">
         <v>234</v>
       </c>
@@ -6795,7 +6793,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11">
       <c r="D13" s="15" t="s">
         <v>235</v>
       </c>
@@ -6822,7 +6820,7 @@
         <v>187500</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:12">
       <c r="I18">
         <f>150810/J18</f>
         <v>4.0216000000000003</v>
@@ -6832,7 +6830,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:12">
       <c r="L30">
         <f>150*250</f>
         <v>37500</v>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7020" tabRatio="940" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="945" windowWidth="14805" windowHeight="6960" tabRatio="940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="257">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -810,15 +810,18 @@
   <si>
     <t>- Kết quả có giống như với GA viết bằng C hay ko?</t>
   </si>
+  <si>
+    <t>Đã confirm là source của Java đang chạy giống hệt với C.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,7 +980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1067,6 +1070,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4368,6 +4372,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4402,6 +4407,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4577,36 +4583,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP158"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -4614,17 +4620,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -4632,7 +4638,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -4640,32 +4646,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -4681,7 +4687,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -4689,7 +4695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4697,12 +4703,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -4735,7 +4741,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -4757,12 +4763,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -4770,12 +4776,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -4783,7 +4789,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -4799,47 +4805,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -4847,7 +4853,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4855,44 +4861,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -4914,7 +4920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -4931,7 +4937,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -4942,21 +4948,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -4964,57 +4970,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5027,12 +5033,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5040,7 +5046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5048,12 +5054,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5061,12 +5067,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5100,7 +5106,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5132,7 +5138,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5146,29 +5152,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5176,12 +5182,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5189,7 +5195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5207,7 +5213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5215,12 +5221,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5228,12 +5234,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5255,7 +5261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5283,14 +5289,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5303,7 +5309,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5326,7 +5332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5346,7 +5352,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5366,7 +5372,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5386,12 +5392,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5411,7 +5417,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5431,12 +5437,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5456,83 +5462,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5542,32 +5548,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -5582,12 +5588,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -5602,14 +5608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5624,7 +5630,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -5633,7 +5639,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -5715,7 +5721,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -5749,7 +5755,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -5783,7 +5789,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5820,7 +5826,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5861,7 +5867,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5903,7 +5909,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5943,7 +5949,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5983,7 +5989,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5999,7 +6005,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6015,7 +6021,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6031,7 +6037,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6047,7 +6053,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6063,7 +6069,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6079,7 +6085,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6095,7 +6101,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6111,7 +6117,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6127,12 +6133,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6151,7 +6157,7 @@
       </c>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="48"/>
       <c r="H24" s="50"/>
       <c r="I24" s="14" t="s">
@@ -6167,7 +6173,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6183,7 +6189,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6195,7 +6201,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6207,7 +6213,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6219,7 +6225,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6227,7 +6233,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6235,7 +6241,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6243,7 +6249,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6253,7 +6259,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6261,7 +6267,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6269,7 +6275,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6277,7 +6283,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6297,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6313,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6325,7 +6331,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6337,7 +6343,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6347,7 +6353,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6355,14 +6361,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6372,7 +6378,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6382,7 +6388,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6393,7 +6399,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6401,7 +6407,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6412,17 +6418,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6430,7 +6436,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6447,7 +6453,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6455,41 +6461,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6506,29 +6512,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -6550,12 +6556,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6563,42 +6569,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -6609,53 +6615,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>255</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6668,14 +6677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D9:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
@@ -6686,7 +6695,7 @@
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:11">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" s="15" t="s">
         <v>249</v>
       </c>
@@ -6712,7 +6721,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="4:11">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" s="45" t="s">
         <v>232</v>
       </c>
@@ -6739,7 +6748,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="11" spans="4:11">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" s="15" t="s">
         <v>233</v>
       </c>
@@ -6766,7 +6775,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="4:11">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" s="15" t="s">
         <v>234</v>
       </c>
@@ -6793,7 +6802,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="4:11">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" s="15" t="s">
         <v>235</v>
       </c>
@@ -6820,7 +6829,7 @@
         <v>187500</v>
       </c>
     </row>
-    <row r="18" spans="9:12">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I18">
         <f>150810/J18</f>
         <v>4.0216000000000003</v>
@@ -6830,7 +6839,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="30" spans="9:12">
+    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
       <c r="L30">
         <f>150*250</f>
         <v>37500</v>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="945" windowWidth="14805" windowHeight="6960" tabRatio="940" activeTab="3"/>
@@ -11,14 +11,13 @@
     <sheet name="Report" sheetId="9" r:id="rId2"/>
     <sheet name="icta2016" sheetId="11" r:id="rId3"/>
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="242">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -739,60 +738,6 @@
     <t>2, Implement theo cái Korel, nhưng apply KO phải cho tập target paths mà cho từng path một</t>
   </si>
   <si>
-    <t>ttB2002</t>
-  </si>
-  <si>
-    <t>tM2004</t>
-  </si>
-  <si>
-    <t>tA2008</t>
-  </si>
-  <si>
-    <t>QuadEq2</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>Max gen</t>
-  </si>
-  <si>
-    <t>Popsize</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>[1, 1000]</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>Max run</t>
-  </si>
-  <si>
-    <t>Epsilon</t>
-  </si>
-  <si>
-    <t>[1, 400]</t>
-  </si>
-  <si>
-    <t>[0, 50]</t>
-  </si>
-  <si>
-    <t>[-50, 50]</t>
-  </si>
-  <si>
-    <t>Max aval. function call</t>
-  </si>
-  <si>
-    <t>Test function</t>
-  </si>
-  <si>
     <t>Đây là paper mà mình dùng để viết phần Proposed của mình</t>
   </si>
   <si>
@@ -812,16 +757,25 @@
   </si>
   <si>
     <t>Đã confirm là source của Java đang chạy giống hệt với C.</t>
+  </si>
+  <si>
+    <t>4, Thử với các fitness function ở các paper sau</t>
+  </si>
+  <si>
+    <t>Automatic Path-oriented Test Data Generation Using a Multi-population Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>Dynamic stopping criteria for search-based test data generation for path testing.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,7 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1052,9 +1006,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1070,7 +1022,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4372,7 +4323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4407,7 +4357,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4583,36 +4532,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP158"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -4620,17 +4569,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -4638,7 +4587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -4646,32 +4595,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -4679,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -4687,7 +4636,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -4695,7 +4644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4703,12 +4652,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -4719,7 +4668,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -4733,7 +4682,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -4741,7 +4690,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -4752,7 +4701,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -4763,12 +4712,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -4776,12 +4725,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -4789,7 +4738,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -4797,7 +4746,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -4805,47 +4754,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -4853,7 +4802,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4861,44 +4810,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -4909,7 +4858,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -4920,7 +4869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -4937,7 +4886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -4948,21 +4897,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -4970,57 +4919,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5033,12 +4982,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5046,7 +4995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5054,12 +5003,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5067,12 +5016,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5106,7 +5055,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5138,7 +5087,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5152,29 +5101,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5182,12 +5131,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5195,7 +5144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5213,7 +5162,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5221,12 +5170,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5234,12 +5183,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5261,7 +5210,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5275,7 +5224,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5289,14 +5238,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5309,7 +5258,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5332,7 +5281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5352,7 +5301,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5372,7 +5321,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5392,12 +5341,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5417,7 +5366,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5437,12 +5386,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5462,83 +5411,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5548,32 +5497,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -5588,12 +5537,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -5608,14 +5557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5630,7 +5579,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -5639,7 +5588,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -5677,7 +5626,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -5721,7 +5670,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -5755,7 +5704,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -5789,7 +5738,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5826,7 +5775,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5867,7 +5816,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5909,7 +5858,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5949,7 +5898,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5989,7 +5938,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6005,7 +5954,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6021,7 +5970,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6037,7 +5986,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6053,7 +6002,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6069,7 +6018,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6085,7 +6034,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6101,7 +6050,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6117,7 +6066,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6133,12 +6082,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6157,7 +6106,7 @@
       </c>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="48"/>
       <c r="H24" s="50"/>
       <c r="I24" s="14" t="s">
@@ -6173,7 +6122,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6189,7 +6138,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6201,7 +6150,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6213,7 +6162,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6225,7 +6174,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6233,7 +6182,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6241,7 +6190,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6249,7 +6198,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6259,7 +6208,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6267,7 +6216,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6275,7 +6224,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6283,7 +6232,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6303,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6319,7 +6268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6331,7 +6280,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6343,7 +6292,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6353,7 +6302,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6361,14 +6310,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6378,7 +6327,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6388,7 +6337,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6399,7 +6348,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6407,7 +6356,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6418,17 +6367,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6436,7 +6385,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6453,7 +6402,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6461,41 +6410,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6512,29 +6461,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6542,12 +6491,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -6556,12 +6505,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6569,42 +6518,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -6615,56 +6564,80 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="L7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="C10" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="C11" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>256</v>
+        <v>237</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -6674,179 +6647,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D9:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" s="15">
-        <v>150</v>
-      </c>
-      <c r="H10" s="15">
-        <v>250</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="15">
-        <v>10</v>
-      </c>
-      <c r="K10" s="32">
-        <f>G10*H10*I10</f>
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" s="15">
-        <v>100</v>
-      </c>
-      <c r="H11" s="15">
-        <v>250</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1</v>
-      </c>
-      <c r="K11" s="32">
-        <f t="shared" ref="K11:K13" si="0">G11*H11*I11</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" s="15">
-        <v>100</v>
-      </c>
-      <c r="H12" s="15">
-        <v>100</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1</v>
-      </c>
-      <c r="J12" s="15">
-        <v>10</v>
-      </c>
-      <c r="K12" s="32">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G13" s="15">
-        <v>150</v>
-      </c>
-      <c r="H13" s="15">
-        <v>250</v>
-      </c>
-      <c r="I13" s="15">
-        <v>5</v>
-      </c>
-      <c r="J13" s="15">
-        <v>1</v>
-      </c>
-      <c r="K13" s="32">
-        <f t="shared" si="0"/>
-        <v>187500</v>
-      </c>
-    </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I18">
-        <f>150810/J18</f>
-        <v>4.0216000000000003</v>
-      </c>
-      <c r="J18">
-        <f>G13*H13</f>
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="L30">
-        <f>150*250</f>
-        <v>37500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="945" windowWidth="14805" windowHeight="6960" tabRatio="940" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="6900" tabRatio="940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="icta2016" sheetId="11" r:id="rId3"/>
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="245">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -767,15 +767,24 @@
   <si>
     <t>Dynamic stopping criteria for search-based test data generation for path testing.pdf</t>
   </si>
+  <si>
+    <t>A Survey on Software Testing Techniques using Genetic Algorithm.pdf</t>
+  </si>
+  <si>
+    <t>cần phải có 1 hướng đi trong đám này</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phải chạy được cái MPGA </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4323,6 +4332,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4357,6 +4367,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4532,36 +4543,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP158"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -4569,17 +4580,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -4587,7 +4598,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -4595,32 +4606,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -4628,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -4636,7 +4647,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -4644,7 +4655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4652,12 +4663,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -4668,7 +4679,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -4682,7 +4693,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -4690,7 +4701,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -4701,7 +4712,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -4712,12 +4723,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -4725,12 +4736,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -4738,7 +4749,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -4746,7 +4757,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -4754,47 +4765,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -4802,7 +4813,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4810,44 +4821,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -4858,7 +4869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -4869,7 +4880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -4886,7 +4897,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -4897,21 +4908,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -4919,57 +4930,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -4982,12 +4993,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -4995,7 +5006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5003,12 +5014,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5016,12 +5027,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5055,7 +5066,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5087,7 +5098,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5101,29 +5112,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5131,12 +5142,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5144,7 +5155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5162,7 +5173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5170,12 +5181,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5183,12 +5194,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5210,7 +5221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5224,7 +5235,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5238,14 +5249,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5258,7 +5269,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5281,7 +5292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5301,7 +5312,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5321,7 +5332,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5341,12 +5352,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5366,7 +5377,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5386,12 +5397,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5411,83 +5422,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5497,32 +5508,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -5537,12 +5548,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -5557,14 +5568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5579,7 +5590,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -5588,7 +5599,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -5626,7 +5637,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -5670,7 +5681,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -5704,7 +5715,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -5738,7 +5749,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5775,7 +5786,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5816,7 +5827,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5858,7 +5869,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5898,7 +5909,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5938,7 +5949,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5954,7 +5965,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5970,7 +5981,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5986,7 +5997,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6002,7 +6013,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6018,7 +6029,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6034,7 +6045,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6050,7 +6061,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6066,7 +6077,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6082,12 +6093,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6106,7 +6117,7 @@
       </c>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="48"/>
       <c r="H24" s="50"/>
       <c r="I24" s="14" t="s">
@@ -6122,7 +6133,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6138,7 +6149,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6150,7 +6161,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6162,7 +6173,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6174,7 +6185,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6182,7 +6193,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6190,7 +6201,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6198,7 +6209,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6208,7 +6219,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6216,7 +6227,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6224,7 +6235,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6232,7 +6243,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6252,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6268,7 +6279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6280,7 +6291,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6292,7 +6303,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6302,7 +6313,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6310,14 +6321,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6327,7 +6338,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6337,7 +6348,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6348,7 +6359,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6356,7 +6367,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6367,17 +6378,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6385,7 +6396,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6402,7 +6413,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6410,41 +6421,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6461,29 +6472,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6491,7 +6502,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -6505,12 +6516,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6518,42 +6529,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -6564,21 +6575,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -6586,7 +6597,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -6594,7 +6605,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -6602,22 +6613,22 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -6625,19 +6636,35 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="B15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>242</v>
+      </c>
+      <c r="L17" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="6900" tabRatio="940" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="6840" tabRatio="940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="249">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -775,6 +775,18 @@
   </si>
   <si>
     <t xml:space="preserve">Phải chạy được cái MPGA </t>
+  </si>
+  <si>
+    <t>chưa chạy được vì mình chưa setting các source code C</t>
+  </si>
+  <si>
+    <t>Tuy nhiên công thức Korel và MPGA cho cái này thì mình đã hiểu được</t>
+  </si>
+  <si>
+    <t>Cái này làm về stopping criteria nhưng mình có thể lấy các fitness function của nó để apply vào cái của mình</t>
+  </si>
+  <si>
+    <t>NG</t>
   </si>
 </sst>
 </file>
@@ -6576,20 +6588,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -6597,7 +6609,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -6605,7 +6617,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -6613,22 +6625,22 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -6636,34 +6648,68 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>244</v>
       </c>
       <c r="F15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
+      <c r="M16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>242</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L22" t="s">
         <v>243</v>
       </c>
     </row>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="6840" tabRatio="940" activeTab="3"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="282">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -787,6 +787,105 @@
   </si>
   <si>
     <t>NG</t>
+  </si>
+  <si>
+    <t>[GAParam]</t>
+  </si>
+  <si>
+    <t>popsize=100</t>
+  </si>
+  <si>
+    <t>maxgen=400</t>
+  </si>
+  <si>
+    <t>nvarbin=0</t>
+  </si>
+  <si>
+    <t>nvarreal=3</t>
+  </si>
+  <si>
+    <t>chrlen=20</t>
+  </si>
+  <si>
+    <t>xbinlower=-80</t>
+  </si>
+  <si>
+    <t>xbinupper=80</t>
+  </si>
+  <si>
+    <t>xreallower=0</t>
+  </si>
+  <si>
+    <t>xrealupper=32768</t>
+  </si>
+  <si>
+    <t>RIGID=y</t>
+  </si>
+  <si>
+    <t>SHARING=y</t>
+  </si>
+  <si>
+    <t>sigmashare=1</t>
+  </si>
+  <si>
+    <t>REPORT=y</t>
+  </si>
+  <si>
+    <t>maxrun=1</t>
+  </si>
+  <si>
+    <t>xover=0.5</t>
+  </si>
+  <si>
+    <t>mutationbin=0.1</t>
+  </si>
+  <si>
+    <t>mutationreal=0.1</t>
+  </si>
+  <si>
+    <t>nDistributionC=0.5</t>
+  </si>
+  <si>
+    <t>nDistributionM=0.5</t>
+  </si>
+  <si>
+    <t>basicseed=0.5</t>
+  </si>
+  <si>
+    <t>num_obj=3</t>
+  </si>
+  <si>
+    <t>GA started....</t>
+  </si>
+  <si>
+    <t>Path 4: a = 24157.793238245304 b = 7892.571993926358 c = 20154.09234938607</t>
+  </si>
+  <si>
+    <t>Objective call: 1</t>
+  </si>
+  <si>
+    <t>Path 1: a = 12728.348784204605 b = 2252.453918281488 c = 4358.508175489202</t>
+  </si>
+  <si>
+    <t>Objective call: 3</t>
+  </si>
+  <si>
+    <t>Path 3: a = 19203.246232416855 b = 19203.246232416855 c = 7869.814563268097</t>
+  </si>
+  <si>
+    <t>Objective call: 158</t>
+  </si>
+  <si>
+    <t>Path 2: a = 11108.916134713632 b = 11108.916134713632 c = 11108.916134713632</t>
+  </si>
+  <si>
+    <t>Objective call: 496</t>
+  </si>
+  <si>
+    <t>GA completed./.</t>
+  </si>
+  <si>
+    <t>epsilon = 1000</t>
   </si>
 </sst>
 </file>
@@ -4556,6 +4655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
@@ -5581,6 +5681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView topLeftCell="A65" workbookViewId="0">
@@ -6485,6 +6586,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
@@ -6588,20 +6690,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -6609,7 +6712,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -6617,7 +6720,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -6625,35 +6728,75 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U8" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>249</v>
+      </c>
+      <c r="U9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>250</v>
+      </c>
+      <c r="U10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
       <c r="J11" s="45" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>251</v>
+      </c>
+      <c r="U11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>252</v>
+      </c>
+      <c r="U12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>253</v>
+      </c>
+      <c r="U13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -6666,8 +6809,14 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>254</v>
+      </c>
+      <c r="U14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -6677,16 +6826,28 @@
       <c r="M15" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>255</v>
+      </c>
+      <c r="U15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>246</v>
       </c>
       <c r="M16" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>256</v>
+      </c>
+      <c r="U16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -6699,18 +6860,90 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>257</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>258</v>
+      </c>
+      <c r="U18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>242</v>
       </c>
       <c r="L22" t="s">
         <v>243</v>
+      </c>
+      <c r="R22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="6840" tabRatio="940" activeTab="3"/>
@@ -12,12 +12,12 @@
     <sheet name="icta2016" sheetId="11" r:id="rId3"/>
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="305">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -887,15 +887,84 @@
   <si>
     <t>epsilon = 1000</t>
   </si>
+  <si>
+    <t>icta2016 proposed approach</t>
+  </si>
+  <si>
+    <t>Only Korel</t>
+  </si>
+  <si>
+    <t>GA201612 started....</t>
+  </si>
+  <si>
+    <t>Run No. 1 :  Wait Please .........</t>
+  </si>
+  <si>
+    <t>Object call = 8673</t>
+  </si>
+  <si>
+    <t>a = 32768.00000000</t>
+  </si>
+  <si>
+    <t>b = 32768.00000000</t>
+  </si>
+  <si>
+    <t>c = 32768.00000000</t>
+  </si>
+  <si>
+    <t>Objective call: 40000</t>
+  </si>
+  <si>
+    <t>trityp1  = 8740</t>
+  </si>
+  <si>
+    <t>trityp2  = 264</t>
+  </si>
+  <si>
+    <t>trityp3  = 30980</t>
+  </si>
+  <si>
+    <t>trityp_1 = 117</t>
+  </si>
+  <si>
+    <t>GA201612 completed./.</t>
+  </si>
+  <si>
+    <t>Korel+icta2016</t>
+  </si>
+  <si>
+    <t>Object call = 2718</t>
+  </si>
+  <si>
+    <t>a = 32763.11102752</t>
+  </si>
+  <si>
+    <t>b = 32763.11102752</t>
+  </si>
+  <si>
+    <t>c = 32763.11102752</t>
+  </si>
+  <si>
+    <t>trityp1  = 3803</t>
+  </si>
+  <si>
+    <t>trityp2  = 373</t>
+  </si>
+  <si>
+    <t>trityp3  = 35808</t>
+  </si>
+  <si>
+    <t>cái tệ ở đây là mình đã dùng static analysis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4443,7 +4512,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4478,7 +4546,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4654,7 +4721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
@@ -4662,29 +4729,29 @@
       <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -4692,17 +4759,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -4710,7 +4777,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -4718,32 +4785,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -4751,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -4759,7 +4826,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -4767,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4775,12 +4842,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -4791,7 +4858,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -4805,7 +4872,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -4813,7 +4880,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -4824,7 +4891,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -4835,12 +4902,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -4848,12 +4915,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -4861,7 +4928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -4869,7 +4936,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -4877,47 +4944,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -4925,7 +4992,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4933,44 +5000,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -4981,7 +5048,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -4992,7 +5059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -5009,7 +5076,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -5020,21 +5087,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -5042,57 +5109,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5105,12 +5172,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5118,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5126,12 +5193,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5139,12 +5206,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5178,7 +5245,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5210,7 +5277,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5224,29 +5291,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5254,12 +5321,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5267,7 +5334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5285,7 +5352,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5293,12 +5360,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5306,12 +5373,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5333,7 +5400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5347,7 +5414,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5361,14 +5428,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5381,7 +5448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5404,7 +5471,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5424,7 +5491,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5444,7 +5511,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5464,12 +5531,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5489,7 +5556,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5509,12 +5576,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5534,83 +5601,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5620,32 +5687,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -5660,12 +5727,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -5680,7 +5747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -5688,7 +5755,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5703,7 +5770,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -5712,7 +5779,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -5750,7 +5817,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -5794,7 +5861,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -5828,7 +5895,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -5862,7 +5929,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5899,7 +5966,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5940,7 +6007,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5982,7 +6049,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6022,7 +6089,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6062,7 +6129,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6078,7 +6145,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6094,7 +6161,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6110,7 +6177,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6126,7 +6193,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6142,7 +6209,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6158,7 +6225,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6174,7 +6241,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6190,7 +6257,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6206,12 +6273,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6230,7 +6297,7 @@
       </c>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="48"/>
       <c r="H24" s="50"/>
       <c r="I24" s="14" t="s">
@@ -6246,7 +6313,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6262,7 +6329,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6274,7 +6341,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6286,7 +6353,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6298,7 +6365,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6306,7 +6373,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6314,7 +6381,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6322,7 +6389,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6332,7 +6399,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6340,7 +6407,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6348,7 +6415,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6356,7 +6423,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6376,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6392,7 +6459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6404,7 +6471,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6416,7 +6483,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6426,7 +6493,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6434,14 +6501,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6451,7 +6518,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6461,7 +6528,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6472,7 +6539,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6480,7 +6547,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6491,17 +6558,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6509,7 +6576,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6526,7 +6593,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6534,41 +6601,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6585,7 +6652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -6593,22 +6660,22 @@
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6616,7 +6683,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -6630,12 +6697,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6643,42 +6710,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -6689,22 +6756,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -6712,7 +6779,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -6720,7 +6787,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -6728,20 +6795,23 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -6751,8 +6821,11 @@
       <c r="U9" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -6762,8 +6835,11 @@
       <c r="U10" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -6776,16 +6852,23 @@
       <c r="U11" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD11" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE11" s="5"/>
+    </row>
+    <row r="12" spans="1:31">
       <c r="R12" t="s">
         <v>252</v>
       </c>
       <c r="U12" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -6795,8 +6878,11 @@
       <c r="U13" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -6815,8 +6901,11 @@
       <c r="U14" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -6832,8 +6921,11 @@
       <c r="U15" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -6846,8 +6938,11 @@
       <c r="U16" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -6868,8 +6963,11 @@
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -6879,23 +6977,35 @@
       <c r="U18" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32">
       <c r="R19" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32">
       <c r="R20" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:32">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -6905,45 +7015,94 @@
       <c r="R22" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32">
       <c r="R23" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32">
       <c r="R24" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD24" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32">
       <c r="R25" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD25" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+    </row>
+    <row r="26" spans="2:32">
       <c r="R26" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32">
       <c r="R27" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32">
       <c r="R28" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32">
       <c r="R29" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AD29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32">
       <c r="R30" t="s">
         <v>270</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32">
+      <c r="AD31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32">
+      <c r="AD32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="30:30">
+      <c r="AD33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="30:30">
+      <c r="AD34" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="6840" tabRatio="940" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="6840" tabRatio="940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="icta2016" sheetId="11" r:id="rId3"/>
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -960,11 +960,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3034,7 +3034,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> paths list</a:t>
+            <a:t> paths </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200">
@@ -3044,7 +3044,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> generation</a:t>
+            <a:t>generation</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3101,68 +3101,22 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Determine</a:t>
+            <a:t>Identify difficult paths</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>difficult</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>paths</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>to be covered</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3225,7 +3179,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Determine path conditions</a:t>
+            <a:t>Identify path conditions</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
@@ -3717,7 +3671,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Recombination</a:t>
+            <a:t>Crossover</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> and mutation</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
@@ -4512,6 +4478,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4546,6 +4513,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4721,7 +4689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
@@ -4729,29 +4697,29 @@
       <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -4759,17 +4727,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -4777,7 +4745,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -4785,32 +4753,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -4818,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -4826,7 +4794,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -4834,7 +4802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4842,12 +4810,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -4858,7 +4826,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -4872,7 +4840,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -4880,7 +4848,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -4891,7 +4859,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -4902,12 +4870,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -4915,12 +4883,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -4928,7 +4896,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -4936,7 +4904,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -4944,47 +4912,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -4992,7 +4960,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -5000,44 +4968,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -5048,7 +5016,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -5059,7 +5027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -5076,7 +5044,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -5087,21 +5055,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -5109,57 +5077,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5172,12 +5140,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5185,7 +5153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5193,12 +5161,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5206,12 +5174,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5245,7 +5213,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5277,7 +5245,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5291,29 +5259,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5321,12 +5289,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5334,7 +5302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5352,7 +5320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5360,12 +5328,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5373,12 +5341,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5400,7 +5368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5414,7 +5382,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5428,14 +5396,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5448,7 +5416,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5471,7 +5439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5491,7 +5459,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5511,7 +5479,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5531,12 +5499,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5556,7 +5524,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5576,12 +5544,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5601,83 +5569,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5687,32 +5655,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -5727,12 +5695,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -5747,7 +5715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -5755,7 +5723,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5770,7 +5738,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -5779,7 +5747,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -5817,7 +5785,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -5861,7 +5829,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -5895,7 +5863,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -5929,7 +5897,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5966,7 +5934,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6007,7 +5975,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6049,7 +6017,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6089,7 +6057,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6129,7 +6097,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6145,7 +6113,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6161,7 +6129,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6177,7 +6145,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6193,7 +6161,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6209,7 +6177,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6225,7 +6193,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6241,7 +6209,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6257,7 +6225,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6273,12 +6241,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6297,7 +6265,7 @@
       </c>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="48"/>
       <c r="H24" s="50"/>
       <c r="I24" s="14" t="s">
@@ -6313,7 +6281,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6329,7 +6297,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6341,7 +6309,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6353,7 +6321,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6365,7 +6333,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6373,7 +6341,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6381,7 +6349,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6389,7 +6357,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6399,7 +6367,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6407,7 +6375,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6415,7 +6383,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6423,7 +6391,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6443,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6459,7 +6427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6471,7 +6439,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6483,7 +6451,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6493,7 +6461,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6501,14 +6469,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6518,7 +6486,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6528,7 +6496,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6539,7 +6507,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6547,7 +6515,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6558,17 +6526,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6576,7 +6544,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6593,7 +6561,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6601,41 +6569,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6652,30 +6620,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB54" sqref="AB54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6683,7 +6651,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -6697,12 +6665,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6710,42 +6678,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -6756,22 +6724,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O10" workbookViewId="0">
       <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -6779,7 +6747,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -6787,7 +6755,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -6795,7 +6763,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -6811,7 +6779,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -6825,7 +6793,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -6839,7 +6807,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -6857,7 +6825,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -6868,7 +6836,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -6882,7 +6850,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -6905,7 +6873,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -6925,7 +6893,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -6942,7 +6910,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="2:32">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -6967,7 +6935,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="2:32">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -6981,7 +6949,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="2:32">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -6989,7 +6957,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="2:32">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -7000,12 +6968,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="2:32">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="2:32">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -7019,7 +6987,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="2:32">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -7027,7 +6995,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="2:32">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7035,7 +7003,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="2:32">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7045,7 +7013,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="2:32">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7053,7 +7021,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="2:32">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>267</v>
       </c>
@@ -7061,7 +7029,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="2:32">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R28" t="s">
         <v>268</v>
       </c>
@@ -7069,7 +7037,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="2:32">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>269</v>
       </c>
@@ -7077,7 +7045,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="2:32">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R30" t="s">
         <v>270</v>
       </c>
@@ -7085,22 +7053,22 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="2:32">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="AD31" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="2:32">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="AD32" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="30:30">
+    <row r="33" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD33" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="30:30">
+    <row r="34" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD34" t="s">
         <v>295</v>
       </c>

--- a/src/report/GAReport.xlsx
+++ b/src/report/GAReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="6840" tabRatio="940" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="6840" tabRatio="940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -6624,8 +6624,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB54" sqref="AB54"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6728,8 +6728,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView topLeftCell="O10" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
